--- a/South College Data file Month dd.xlsx
+++ b/South College Data file Month dd.xlsx
@@ -23,12 +23,14 @@
     <sheet name="Career Now Brands" sheetId="24" r:id="rId9"/>
     <sheet name="Classes USA" sheetId="22" r:id="rId10"/>
     <sheet name="Edusearch" sheetId="5" r:id="rId11"/>
-    <sheet name="Higher Ed Growth" sheetId="6" r:id="rId12"/>
-    <sheet name="Lead5 Media" sheetId="26" r:id="rId13"/>
-    <sheet name="Neutron Interactive" sheetId="7" r:id="rId14"/>
-    <sheet name="Next Step Media Network" sheetId="17" r:id="rId15"/>
-    <sheet name="QuinStreet" sheetId="9" r:id="rId16"/>
-    <sheet name="The College Bound Network" sheetId="10" r:id="rId17"/>
+    <sheet name="Higher Level Edu." sheetId="27" r:id="rId12"/>
+    <sheet name="HigherEd Growth" sheetId="6" r:id="rId13"/>
+    <sheet name="Lead5 Media" sheetId="26" r:id="rId14"/>
+    <sheet name="Neutron Interactive" sheetId="7" r:id="rId15"/>
+    <sheet name="Next Step Media Network" sheetId="17" r:id="rId16"/>
+    <sheet name="QuinStreet" sheetId="9" r:id="rId17"/>
+    <sheet name="React2Media" sheetId="28" r:id="rId18"/>
+    <sheet name="The College Bound Network" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="32">
   <si>
     <t>E-Score</t>
   </si>
@@ -75,9 +77,6 @@
     <t>Edusearch</t>
   </si>
   <si>
-    <t>Higher Ed Growth</t>
-  </si>
-  <si>
     <t>Neutron Interactive</t>
   </si>
   <si>
@@ -130,6 +129,15 @@
   </si>
   <si>
     <t>Lead5 Media</t>
+  </si>
+  <si>
+    <t>HigherEd Growth</t>
+  </si>
+  <si>
+    <t>Higher Level</t>
+  </si>
+  <si>
+    <t>React2Media</t>
   </si>
 </sst>
 </file>
@@ -310,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +579,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +864,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,6 +890,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="136">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1415,30 +1438,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1470,25 +1493,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,12 +1535,72 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="23" customWidth="1"/>
+    <col min="2" max="9" width="11.42578125" style="23"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1534,30 +1617,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FF9900FF"/>
@@ -1605,30 +1688,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor theme="9"/>
@@ -1660,30 +1743,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
@@ -1731,30 +1814,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFCCFFCC"/>
@@ -1795,30 +1878,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1918,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="25" customWidth="1"/>
+    <col min="2" max="7" width="11.42578125" style="25"/>
+    <col min="8" max="8" width="16" style="25" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="25"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FF3366FF"/>
@@ -1861,30 +2004,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2061,30 +2204,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2125,30 +2268,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2184,30 +2327,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2250,30 +2393,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2308,25 +2451,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2374,30 +2517,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>

--- a/South College Data file Month dd.xlsx
+++ b/South College Data file Month dd.xlsx
@@ -1540,9 +1540,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1598,9 +1596,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1925,9 +1921,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
